--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74510.22018665206</v>
+        <v>-83822.58335528584</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34095737.92864075</v>
+        <v>34094010.66777586</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12596386.88795505</v>
+        <v>12586714.0518201</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2830493.876287959</v>
+        <v>2835174.602876007</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.873653090726767</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>3.26254892226018</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>3.26254892226018</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.26254892226018</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>3.26254892226018</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>2.873653090726767</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>3.26254892226018</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>3.26254892226018</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3.26254892226018</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.873653090726767</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3.26254892226018</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.26254892226018</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1736,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
     </row>
     <row r="16">
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>418.1856318563248</v>
+        <v>149.8561194158352</v>
       </c>
       <c r="C17" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>371.5724976088931</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2004,16 +2004,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>139.0318375661496</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.3388892342509</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>201.2249340553011</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>399.2805564346979</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>396.054118850051</v>
+        <v>40.70822517976857</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84.93117419742984</v>
+        <v>173.9441276175715</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T22" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6161358490523</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>268.2368329361448</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>119.0149546483947</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2484,16 +2484,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>85.1488807209173</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>185.4235363817277</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>356.3141292052473</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>176.1446634785934</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2766,22 +2766,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>152.4182932389102</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>44.24057843418412</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,22 +2794,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>256.1049925036112</v>
+        <v>340.235230278746</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2888,7 +2888,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H30" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>48.93733118989825</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2967,10 +2967,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>188.1963070150272</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>177.8225688269869</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>227.1475059272046</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H33" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>7.722803593220026</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>233.664673755671</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3271,16 +3271,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>172.5998412330484</v>
+        <v>7.627041295853282</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H36" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>116.8094009873584</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>17.75123914303021</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>209.9173256651436</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>306.3058972927754</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H39" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3678,10 +3678,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>94.48222241504988</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>71.83336310406737</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>42.83083614393574</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>321.9370827829815</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H42" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>118.3474735769326</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>18.87668342991616</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>201.5041232421057</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>198.9265187304006</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>57.09228531058668</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>227.3355160527344</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>3.163683803403811</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3.163683803403811</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3.163683803403811</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.163683803403811</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3.163683803403811</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.2610039137808144</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.2610039137808144</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.2610039137808144</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.160310701713715</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2.508138455589556</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>4.180237967355222</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>6.040770853278407</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>7.931409106423075</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>9.716685196678654</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>11.24037703588967</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>12.38460615143351</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>13.05019568904072</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>13.05019568904072</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>9.754691727161751</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.459187765282781</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.163683803403811</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>3.163683803403811</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>3.163683803403811</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>3.163683803403811</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.2610039137808144</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.2610039137808144</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.2610039137808144</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.2610039137808144</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.2610039137808144</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.2610039137808144</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.2610039137808144</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.635647778959034</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.171268740983603</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>5.401192174021181</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>6.632143184885408</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>8.068604954355688</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>9.543085592538453</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>10.89194731330104</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>11.97452776196292</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>12.69820412233445</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>13.05019568904072</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>13.05019568904072</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>13.05019568904072</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>13.05019568904072</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>10.14751579941772</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>6.852011837538754</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>3.556507875659784</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>3.556507875659784</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>6.459187765282781</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6.459187765282781</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3.556507875659784</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3.556507875659784</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3.556507875659784</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.556507875659784</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.2610039137808144</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.2610039137808144</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.490927346818392</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>4.239079756661932</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>4.945709198019038</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>8.175632631056615</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>11.40555606409419</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>12.07735957113958</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>12.65220352905905</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>13.05019568904072</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>13.05019568904072</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>9.754691727161751</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>9.754691727161751</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>9.754691727161751</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>9.754691727161751</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>9.754691727161751</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>9.754691727161751</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>9.754691727161751</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.160310701713749</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2.508138455589629</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>4.180237967355345</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>6.040770853278585</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>7.931409106423309</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>9.71668519667894</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.4561956203818616</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.9918165824064465</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1.907278118958099</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>3.138229129822361</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>4.574690899292685</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>6.049171537475493</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>7.398033258238114</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>8.480613706900034</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>11.71053713993771</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.490927346818495</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>4.043130126599839</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>4.749759567956966</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>7.979683000994639</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>8.707009244504761</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>9.37881275155017</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>9.953656709469652</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>9.754691727162038</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>455.8645796963089</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="C17" t="n">
         <v>33.45485054850599</v>
@@ -5512,16 +5512,16 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I17" t="n">
-        <v>83.79828774524233</v>
+        <v>83.79828774524201</v>
       </c>
       <c r="J17" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K17" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L17" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M17" t="n">
         <v>801.8833353847205</v>
@@ -5536,31 +5536,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q17" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R17" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S17" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T17" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U17" t="n">
-        <v>1672.742527425299</v>
+        <v>1360.583196495746</v>
       </c>
       <c r="V17" t="n">
-        <v>1672.742527425299</v>
+        <v>997.966246429572</v>
       </c>
       <c r="W17" t="n">
-        <v>1672.742527425299</v>
+        <v>593.1107918406053</v>
       </c>
       <c r="X17" t="n">
-        <v>1253.60006400461</v>
+        <v>593.1107918406053</v>
       </c>
       <c r="Y17" t="n">
-        <v>878.2743088441118</v>
+        <v>184.8246681402587</v>
       </c>
     </row>
     <row r="18">
@@ -5585,7 +5585,7 @@
         <v>152.9162207615566</v>
       </c>
       <c r="G18" t="n">
-        <v>68.24978812594554</v>
+        <v>68.2497881259456</v>
       </c>
       <c r="H18" t="n">
         <v>33.45485054850599</v>
@@ -5597,22 +5597,22 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K18" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L18" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M18" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O18" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P18" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q18" t="n">
         <v>1511.8379027716</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>688.1485926695859</v>
+        <v>368.2016313020625</v>
       </c>
       <c r="C19" t="n">
-        <v>515.5868811528109</v>
+        <v>368.2016313020625</v>
       </c>
       <c r="D19" t="n">
-        <v>375.1506815910436</v>
+        <v>368.2016313020625</v>
       </c>
       <c r="E19" t="n">
-        <v>375.1506815910436</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="F19" t="n">
         <v>198.4436275527998</v>
@@ -5676,19 +5676,19 @@
         <v>161.7834697148434</v>
       </c>
       <c r="K19" t="n">
-        <v>359.9133944508751</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L19" t="n">
-        <v>447.7058679834641</v>
+        <v>790.2903535690692</v>
       </c>
       <c r="M19" t="n">
-        <v>861.7096435212256</v>
+        <v>1204.294129106831</v>
       </c>
       <c r="N19" t="n">
-        <v>952.0735121144794</v>
+        <v>1294.657997700085</v>
       </c>
       <c r="O19" t="n">
-        <v>1035.539170576305</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P19" t="n">
         <v>1449.542946114066</v>
@@ -5700,25 +5700,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S19" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T19" t="n">
-        <v>1672.742527425299</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U19" t="n">
-        <v>1394.342390204034</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="V19" t="n">
-        <v>1107.386882074465</v>
+        <v>1077.438409101346</v>
       </c>
       <c r="W19" t="n">
-        <v>1107.386882074465</v>
+        <v>805.4120046876371</v>
       </c>
       <c r="X19" t="n">
-        <v>1107.386882074465</v>
+        <v>560.0202500210496</v>
       </c>
       <c r="Y19" t="n">
-        <v>879.9672113885731</v>
+        <v>560.0202500210496</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>433.509516053608</v>
+        <v>74.57426992200959</v>
       </c>
       <c r="C20" t="n">
-        <v>433.509516053608</v>
+        <v>74.57426992200959</v>
       </c>
       <c r="D20" t="n">
-        <v>433.509516053608</v>
+        <v>74.57426992200959</v>
       </c>
       <c r="E20" t="n">
-        <v>433.509516053608</v>
+        <v>74.57426992200959</v>
       </c>
       <c r="F20" t="n">
-        <v>433.509516053608</v>
+        <v>74.57426992200959</v>
       </c>
       <c r="G20" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H20" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I20" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524233</v>
       </c>
       <c r="J20" t="n">
-        <v>195.5292216073324</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K20" t="n">
-        <v>362.9849282099026</v>
+        <v>362.9849282099032</v>
       </c>
       <c r="L20" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968689</v>
       </c>
       <c r="M20" t="n">
-        <v>801.88333538472</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N20" t="n">
         <v>1036.7784573317</v>
@@ -5782,22 +5782,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T20" t="n">
-        <v>1458.555008901416</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U20" t="n">
-        <v>1199.440159488163</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V20" t="n">
-        <v>836.8232094219898</v>
+        <v>1310.125577359126</v>
       </c>
       <c r="W20" t="n">
-        <v>836.8232094219898</v>
+        <v>905.2701227701591</v>
       </c>
       <c r="X20" t="n">
-        <v>836.8232094219898</v>
+        <v>905.2701227701591</v>
       </c>
       <c r="Y20" t="n">
-        <v>836.8232094219898</v>
+        <v>496.9839990698125</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C21" t="n">
-        <v>425.5107626718881</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D21" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E21" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F21" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G21" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H21" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I21" t="n">
-        <v>57.70569792707141</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J21" t="n">
-        <v>448.8102016680198</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K21" t="n">
-        <v>562.5482205134522</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L21" t="n">
-        <v>715.4830229944562</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M21" t="n">
-        <v>893.9507240211726</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N21" t="n">
-        <v>1077.141934046848</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O21" t="n">
-        <v>1244.726101912458</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P21" t="n">
-        <v>1539.100278049918</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q21" t="n">
-        <v>1629.01068086594</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R21" t="n">
         <v>1672.742527425299</v>
@@ -5873,10 +5873,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X21" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y21" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="22">
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.45485054850598</v>
+        <v>552.4816198527876</v>
       </c>
       <c r="C22" t="n">
-        <v>33.45485054850598</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="D22" t="n">
-        <v>33.45485054850598</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E22" t="n">
-        <v>33.45485054850598</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F22" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G22" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H22" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I22" t="n">
-        <v>33.45485054850598</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J22" t="n">
-        <v>75.20378455015357</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K22" t="n">
-        <v>350.8141989856833</v>
+        <v>418.568562451758</v>
       </c>
       <c r="L22" t="n">
-        <v>438.6066725182724</v>
+        <v>832.5723379895196</v>
       </c>
       <c r="M22" t="n">
-        <v>531.1715264452891</v>
+        <v>925.1371919165364</v>
       </c>
       <c r="N22" t="n">
-        <v>621.535395038543</v>
+        <v>1015.50106050979</v>
       </c>
       <c r="O22" t="n">
-        <v>1035.539170576305</v>
+        <v>1098.966718971616</v>
       </c>
       <c r="P22" t="n">
         <v>1449.542946114066</v>
@@ -5937,25 +5937,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S22" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T22" t="n">
-        <v>1429.437390511417</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U22" t="n">
-        <v>1151.037253290152</v>
+        <v>1245.600917940732</v>
       </c>
       <c r="V22" t="n">
-        <v>864.0817451605824</v>
+        <v>1245.600917940732</v>
       </c>
       <c r="W22" t="n">
-        <v>592.055340746874</v>
+        <v>973.5745135270231</v>
       </c>
       <c r="X22" t="n">
-        <v>346.6635860802864</v>
+        <v>728.1827588604356</v>
       </c>
       <c r="Y22" t="n">
-        <v>119.2439153943947</v>
+        <v>728.1827588604356</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>475.073981139747</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="C23" t="n">
-        <v>475.073981139747</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="D23" t="n">
-        <v>475.073981139747</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E23" t="n">
-        <v>475.073981139747</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
         <v>1463.013992431967</v>
@@ -6025,16 +6025,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V23" t="n">
-        <v>1728.802138745691</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W23" t="n">
-        <v>1728.802138745691</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X23" t="n">
-        <v>1309.659675325001</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y23" t="n">
-        <v>901.3735516246547</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="24">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>471.6552262893761</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C25" t="n">
-        <v>299.0935147726011</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D25" t="n">
-        <v>133.2155219741237</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E25" t="n">
-        <v>133.2155219741237</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H25" t="n">
         <v>47.20655154895473</v>
@@ -6153,13 +6153,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>828.1746199579902</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M25" t="n">
-        <v>1412.355695376305</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N25" t="n">
-        <v>1539.854607180195</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O25" t="n">
         <v>1657.620488527956</v>
@@ -6186,13 +6186,13 @@
         <v>1408.311674774551</v>
       </c>
       <c r="W25" t="n">
-        <v>1136.285270360843</v>
+        <v>1221.015173378866</v>
       </c>
       <c r="X25" t="n">
-        <v>890.893515694255</v>
+        <v>1221.015173378866</v>
       </c>
       <c r="Y25" t="n">
-        <v>663.4738450083632</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2360.327577447737</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C26" t="n">
-        <v>1922.18510463116</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D26" t="n">
-        <v>1486.275319805604</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E26" t="n">
-        <v>1052.500574963899</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F26" t="n">
-        <v>624.6331453731073</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>225.1304540525844</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I26" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M26" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P26" t="n">
         <v>2043.069798152528</v>
@@ -6250,28 +6250,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V26" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="W26" t="n">
-        <v>2360.327577447737</v>
+        <v>1484.630179849396</v>
       </c>
       <c r="X26" t="n">
-        <v>2360.327577447737</v>
+        <v>1484.630179849396</v>
       </c>
       <c r="Y26" t="n">
-        <v>2360.327577447737</v>
+        <v>1076.344056149049</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
         <v>341.0245550495863</v>
@@ -6299,7 +6299,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I27" t="n">
         <v>81.42328772043084</v>
@@ -6311,7 +6311,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M27" t="n">
         <v>803.387703298788</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.291841223631</v>
+        <v>926.413848425154</v>
       </c>
       <c r="C28" t="n">
-        <v>919.7301297068562</v>
+        <v>753.852136908379</v>
       </c>
       <c r="D28" t="n">
         <v>753.852136908379</v>
@@ -6381,55 +6381,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J28" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>289.4920009833859</v>
+        <v>320.0013704257346</v>
       </c>
       <c r="L28" t="n">
-        <v>413.3628026016838</v>
+        <v>862.0820538119935</v>
       </c>
       <c r="M28" t="n">
-        <v>997.5438780199985</v>
+        <v>992.686446150523</v>
       </c>
       <c r="N28" t="n">
-        <v>1567.301592981533</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O28" t="n">
-        <v>2104.736723555076</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R28" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S28" t="n">
         <v>2215.901038951971</v>
       </c>
       <c r="T28" t="n">
-        <v>2061.943166993476</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U28" t="n">
-        <v>1783.556535042219</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V28" t="n">
-        <v>1783.556535042219</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W28" t="n">
-        <v>1511.53013062851</v>
+        <v>1363.624221810729</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.53013062851</v>
+        <v>1118.232467144141</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.110459942618</v>
+        <v>1118.232467144141</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1571.411056896656</v>
+        <v>1060.102744102078</v>
       </c>
       <c r="C29" t="n">
-        <v>1133.268584080079</v>
+        <v>1060.102744102078</v>
       </c>
       <c r="D29" t="n">
-        <v>1133.268584080079</v>
+        <v>1060.102744102078</v>
       </c>
       <c r="E29" t="n">
-        <v>874.5766724602698</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F29" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435808</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
         <v>805.4408022867025</v>
@@ -6478,37 +6478,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W29" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X29" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y29" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586986</v>
       </c>
     </row>
     <row r="30">
@@ -6521,37 +6521,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043167</v>
       </c>
       <c r="J30" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>843.5014354710338</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C31" t="n">
-        <v>670.9397239542587</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D31" t="n">
-        <v>621.5080762876948</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E31" t="n">
-        <v>451.7500725384321</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F31" t="n">
-        <v>275.0430185001883</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G31" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
         <v>192.6919004158277</v>
@@ -6633,40 +6633,40 @@
         <v>1690.512214359095</v>
       </c>
       <c r="N31" t="n">
-        <v>1887.361501150537</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O31" t="n">
-        <v>2005.127382498298</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270317</v>
+        <v>1783.556535042219</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856609</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y31" t="n">
-        <v>1035.320054190021</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1349.126238781879</v>
+        <v>1060.102744102078</v>
       </c>
       <c r="C32" t="n">
-        <v>910.9837659653025</v>
+        <v>1060.102744102078</v>
       </c>
       <c r="D32" t="n">
-        <v>475.073981139747</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I32" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M32" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P32" t="n">
         <v>2043.069798152528</v>
@@ -6724,28 +6724,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U32" t="n">
-        <v>2130.885652268742</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V32" t="n">
-        <v>1768.268702202568</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W32" t="n">
-        <v>1768.268702202568</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X32" t="n">
-        <v>1349.126238781879</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y32" t="n">
-        <v>1349.126238781879</v>
+        <v>1486.402314586986</v>
       </c>
     </row>
     <row r="33">
@@ -6773,22 +6773,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J33" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M33" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>625.4485964662028</v>
+        <v>1036.997366370203</v>
       </c>
       <c r="C34" t="n">
-        <v>452.8868849494278</v>
+        <v>864.4356548534275</v>
       </c>
       <c r="D34" t="n">
-        <v>287.0088921509505</v>
+        <v>698.5576620549502</v>
       </c>
       <c r="E34" t="n">
-        <v>287.0088921509505</v>
+        <v>528.7996583056874</v>
       </c>
       <c r="F34" t="n">
-        <v>110.3018381127067</v>
+        <v>352.0926042674437</v>
       </c>
       <c r="G34" t="n">
-        <v>110.3018381127067</v>
+        <v>187.3514238799621</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>55.00736325927798</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L34" t="n">
-        <v>326.783117436994</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M34" t="n">
-        <v>910.9641928553087</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N34" t="n">
-        <v>1480.721907816843</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O34" t="n">
-        <v>2018.157038390386</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P34" t="n">
-        <v>2118.926094568069</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U34" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V34" t="n">
-        <v>1552.738213270316</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.711808856608</v>
+        <v>1701.627410441669</v>
       </c>
       <c r="X34" t="n">
-        <v>1044.686885871082</v>
+        <v>1456.235655775082</v>
       </c>
       <c r="Y34" t="n">
-        <v>817.26721518519</v>
+        <v>1228.81598508919</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1782.900983623584</v>
+        <v>1318.626460527759</v>
       </c>
       <c r="C35" t="n">
-        <v>1344.758510807007</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="D35" t="n">
-        <v>908.8487259814518</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E35" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
         <v>2043.069798152528</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V35" t="n">
-        <v>1957.24425759636</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W35" t="n">
-        <v>1782.900983623584</v>
+        <v>1737.768923948448</v>
       </c>
       <c r="X35" t="n">
-        <v>1782.900983623584</v>
+        <v>1318.626460527759</v>
       </c>
       <c r="Y35" t="n">
-        <v>1782.900983623584</v>
+        <v>1318.626460527759</v>
       </c>
     </row>
     <row r="36">
@@ -7010,22 +7010,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043167</v>
       </c>
       <c r="J36" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M36" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>699.0748969752678</v>
+        <v>750.041858240633</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5131854584928</v>
+        <v>577.480146723858</v>
       </c>
       <c r="D37" t="n">
-        <v>360.6351926600155</v>
+        <v>411.6021539253807</v>
       </c>
       <c r="E37" t="n">
-        <v>360.6351926600155</v>
+        <v>241.8441501761179</v>
       </c>
       <c r="F37" t="n">
-        <v>360.6351926600155</v>
+        <v>65.13709613787412</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>65.13709613787412</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>202.912315818696</v>
+        <v>358.0754347909397</v>
       </c>
       <c r="L37" t="n">
-        <v>481.9462364092375</v>
+        <v>481.9462364092376</v>
       </c>
       <c r="M37" t="n">
         <v>1066.127311827552</v>
@@ -7119,7 +7119,7 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
         <v>2215.901038951971</v>
@@ -7128,19 +7128,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V37" t="n">
-        <v>1408.311674774551</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W37" t="n">
-        <v>1136.285270360843</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X37" t="n">
-        <v>890.893515694255</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y37" t="n">
-        <v>890.893515694255</v>
+        <v>941.8604769596202</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1120.886428673516</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="C38" t="n">
-        <v>1120.886428673516</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131645</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.019264653159</v>
       </c>
       <c r="V38" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W38" t="n">
-        <v>1955.47212285877</v>
+        <v>1177.002418331657</v>
       </c>
       <c r="X38" t="n">
-        <v>1955.47212285877</v>
+        <v>1177.002418331657</v>
       </c>
       <c r="Y38" t="n">
-        <v>1547.185999158424</v>
+        <v>1177.002418331657</v>
       </c>
     </row>
     <row r="39">
@@ -7232,37 +7232,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043167</v>
       </c>
       <c r="J39" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M39" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>919.7301297068562</v>
+        <v>992.2890823372254</v>
       </c>
       <c r="C40" t="n">
-        <v>919.7301297068562</v>
+        <v>819.7273708204503</v>
       </c>
       <c r="D40" t="n">
-        <v>753.852136908379</v>
+        <v>653.8493780219731</v>
       </c>
       <c r="E40" t="n">
-        <v>584.0941331591162</v>
+        <v>484.0913742727103</v>
       </c>
       <c r="F40" t="n">
-        <v>407.3870791208724</v>
+        <v>307.3843202344665</v>
       </c>
       <c r="G40" t="n">
-        <v>242.6458987333908</v>
+        <v>142.6431398469849</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="J40" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>413.3628026016839</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M40" t="n">
-        <v>997.5438780199987</v>
+        <v>818.7256495113487</v>
       </c>
       <c r="N40" t="n">
-        <v>1567.301592981533</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O40" t="n">
-        <v>2104.736723555076</v>
+        <v>1657.620488527955</v>
       </c>
       <c r="P40" t="n">
-        <v>2205.505779732759</v>
+        <v>2105.89643867598</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.856484770968</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.90103895197</v>
       </c>
       <c r="T40" t="n">
-        <v>2143.342086321601</v>
+        <v>2215.90103895197</v>
       </c>
       <c r="U40" t="n">
-        <v>2143.342086321601</v>
+        <v>2215.90103895197</v>
       </c>
       <c r="V40" t="n">
-        <v>1856.386578192031</v>
+        <v>1928.9455308224</v>
       </c>
       <c r="W40" t="n">
-        <v>1584.360173778323</v>
+        <v>1656.919126408692</v>
       </c>
       <c r="X40" t="n">
-        <v>1338.968419111735</v>
+        <v>1411.527371742104</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.548748425843</v>
+        <v>1184.107701056213</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1782.900983623584</v>
+        <v>489.9727137219379</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>489.9727137219379</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>489.9727137219379</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>489.9727137219379</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895473</v>
+        <v>489.9727137219379</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895473</v>
+        <v>90.47002240141506</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U41" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V41" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="W41" t="n">
-        <v>2108.089956131646</v>
+        <v>1743.700871327882</v>
       </c>
       <c r="X41" t="n">
-        <v>2108.089956131646</v>
+        <v>1324.558407907192</v>
       </c>
       <c r="Y41" t="n">
-        <v>1782.900983623584</v>
+        <v>916.2722842068457</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M42" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P42" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q42" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R42" t="n">
         <v>1676.651116233592</v>
@@ -7545,55 +7545,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>471.6552262893761</v>
+        <v>730.9745012407178</v>
       </c>
       <c r="C43" t="n">
-        <v>299.0935147726011</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="D43" t="n">
-        <v>299.0935147726011</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E43" t="n">
-        <v>299.0935147726011</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F43" t="n">
-        <v>179.5506121696388</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G43" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>358.0754347909395</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>481.9462364092375</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.127311827552</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N43" t="n">
-        <v>1635.885026789086</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
         <v>2215.901038951971</v>
@@ -7602,19 +7602,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1954.586457855462</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774551</v>
+        <v>1667.630949725893</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1395.604545312184</v>
       </c>
       <c r="X43" t="n">
-        <v>890.893515694255</v>
+        <v>1150.212790645597</v>
       </c>
       <c r="Y43" t="n">
-        <v>663.4738450083632</v>
+        <v>922.7931199597049</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1955.47212285877</v>
+        <v>1078.116190886639</v>
       </c>
       <c r="C44" t="n">
-        <v>1517.329650042193</v>
+        <v>1078.116190886639</v>
       </c>
       <c r="D44" t="n">
-        <v>1081.419865216638</v>
+        <v>1078.116190886639</v>
       </c>
       <c r="E44" t="n">
-        <v>647.6451203749327</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F44" t="n">
-        <v>647.6451203749327</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
-        <v>248.1424290544099</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L44" t="n">
         <v>805.4408022867023</v>
@@ -7660,7 +7660,7 @@
         <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
         <v>1775.969506973259</v>
@@ -7672,28 +7672,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W44" t="n">
-        <v>1955.47212285877</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X44" t="n">
-        <v>1955.47212285877</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y44" t="n">
-        <v>1955.47212285877</v>
+        <v>1078.116190886639</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
         <v>341.0245550495863</v>
@@ -7718,25 +7718,25 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043167</v>
       </c>
       <c r="J45" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.0817647851416</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="C46" t="n">
-        <v>616.0817647851416</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="D46" t="n">
-        <v>616.0817647851416</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E46" t="n">
-        <v>446.3237610358788</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F46" t="n">
-        <v>269.616706997635</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>104.8755266101534</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>477.6707703898316</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>1019.75145377609</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M46" t="n">
-        <v>1150.35584611462</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N46" t="n">
-        <v>1277.854757918509</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O46" t="n">
-        <v>1815.289888492053</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P46" t="n">
-        <v>2263.565838640078</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856608</v>
+        <v>1178.67984037785</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.320054190021</v>
+        <v>933.2880857112621</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041287</v>
+        <v>705.8684150253703</v>
       </c>
     </row>
   </sheetData>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.191365816744633</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2.337840299480761</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.923123287322432</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.1979289192547604</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>2.509981579681861</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.527875949017654</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>2.531562699662752</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.9976434165627452</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.923123287322518</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2.509981579681934</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>2.725804868272492</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>16.80470271645413</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9324,13 +9324,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>130.8319206116796</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>199.3430630505377</v>
       </c>
       <c r="M19" t="n">
-        <v>324.6857794047928</v>
+        <v>324.6857794047926</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>346.0449349349549</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>161.4879868122089</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,10 +9561,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>209.0950415202635</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>329.5063656617905</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9573,10 +9573,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>333.8768859352889</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>346.0449349349549</v>
+        <v>281.9767042326207</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9801,16 +9801,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>458.1582657371569</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>141.4680432173443</v>
-      </c>
-      <c r="M25" t="n">
-        <v>458.158265737157</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -10035,25 +10035,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>30.81754489126138</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>69.27619576520601</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10278,10 +10278,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N31" t="n">
-        <v>70.05088382580993</v>
+        <v>70.05088382580925</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>156.7304232042866</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>69.2761957652059</v>
       </c>
       <c r="L37" t="n">
-        <v>156.7304232042864</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.668621376273222e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>175.7179764032059</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.27619576520601</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>69.27619576520573</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.158265737157</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>141.4680432173438</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>10.62967161639926</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>394.4994971260159</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>214.5571542240769</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>253.366674506195</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>355.7282316432515</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>120.0908620689655</v>
+        <v>116.8283131467053</v>
       </c>
       <c r="C12" t="n">
         <v>105.3918965517241</v>
@@ -23351,10 +23351,10 @@
         <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>84.53123883647795</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H12" t="n">
-        <v>41.31829566194965</v>
+        <v>41.26298946135318</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,22 +23387,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>62.82088317610075</v>
+        <v>62.71451543789637</v>
       </c>
       <c r="T12" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U12" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V12" t="n">
-        <v>197.1263427586206</v>
+        <v>194.2526896678939</v>
       </c>
       <c r="W12" t="n">
-        <v>183.4695267241379</v>
+        <v>180.2069778018777</v>
       </c>
       <c r="X12" t="n">
-        <v>153.3187614035088</v>
+        <v>150.0562124812486</v>
       </c>
       <c r="Y12" t="n">
         <v>125.2209214285714</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>186.6378836095371</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>161.3455597797658</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -23430,13 +23430,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>135.1979190266827</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>20.98777588476759</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>154.3027390048775</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -23509,13 +23509,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>79.30891504736402</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>214.9460500556102</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>253.3666745061949</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>355.7282316432514</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -23588,10 +23588,10 @@
         <v>82.55</v>
       </c>
       <c r="G15" t="n">
-        <v>84.53123883647795</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H15" t="n">
-        <v>41.31829566194965</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23624,16 +23624,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>62.82088317610075</v>
+        <v>59.45196651563608</v>
       </c>
       <c r="T15" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U15" t="n">
-        <v>174.5731815300314</v>
+        <v>171.3102558625354</v>
       </c>
       <c r="V15" t="n">
-        <v>197.1263427586206</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W15" t="n">
         <v>183.4695267241379</v>
@@ -23642,7 +23642,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y15" t="n">
-        <v>125.2209214285714</v>
+        <v>122.3472683378446</v>
       </c>
     </row>
     <row r="16">
@@ -23661,19 +23661,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>165.1867706210433</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>171.6774345756011</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>160.668012373812</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>272.3858599483459</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.85094292373384</v>
+        <v>272.1804553642235</v>
       </c>
       <c r="C17" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>32.63076485444998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>25.18737530434296</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>82.8610189929727</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22.75601834536081</v>
+        <v>3.85094292373384</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -23983,7 +23983,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>355.3458936702824</v>
       </c>
       <c r="H20" t="n">
         <v>272.6207125031721</v>
@@ -24022,22 +24022,22 @@
         <v>52.51403670113842</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>104.9692583343674</v>
+        <v>15.95630491422577</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.3388892342509</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>165.5242151522661</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>239.975825917117</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>89.79110277694403</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>83.88260398784368</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>65.72244557481139</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>90.87967246293528</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>87.40645861671723</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>225.0655619353873</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>173.3320048896766</v>
+        <v>89.20176711454172</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>115.2818816805943</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>95.88964603324661</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>253.728118150313</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>29.33247863649657</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>54.74153010489442</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>9.273163364250678</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>228.2070588100286</v>
+        <v>393.1798587472237</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>46.28436759624832</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>113.2693808714471</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,19 +25396,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>221.6333613121563</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>94.50100275030161</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>36.53839759942738</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>167.9913887515601</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>224.1934997975929</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.26617968036163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,19 +25794,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>56.59250992092875</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>256.7260822018283</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>227.932874151182</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>68.09781721112805</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>73.92833470389058</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>41.97062431683702</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2684.209836298591</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2684.209836298673</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>429316.9578635877</v>
+        <v>429316.9578635878</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>429316.9578635878</v>
+        <v>429316.9578635877</v>
       </c>
     </row>
     <row r="15">
@@ -26322,10 +26322,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>822.191071469379</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>822.1910714694034</v>
       </c>
       <c r="G2" t="n">
         <v>103464.9542517201</v>
@@ -26334,13 +26334,13 @@
         <v>103464.9542517201</v>
       </c>
       <c r="I2" t="n">
-        <v>133702.9356056948</v>
+        <v>133702.9356056947</v>
       </c>
       <c r="J2" t="n">
         <v>133702.9356056947</v>
       </c>
       <c r="K2" t="n">
-        <v>133702.9356056948</v>
+        <v>133702.9356056947</v>
       </c>
       <c r="L2" t="n">
         <v>133702.9356056947</v>
@@ -26349,7 +26349,7 @@
         <v>133702.9356056947</v>
       </c>
       <c r="N2" t="n">
-        <v>133702.9356056948</v>
+        <v>133702.9356056947</v>
       </c>
       <c r="O2" t="n">
         <v>133702.9356056947</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3113.051650297484</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>371788.8610770355</v>
+        <v>368824.7160594863</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>148032.4060558944</v>
+        <v>148032.4060558943</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>813.0402416229259</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>100636.7904918564</v>
+        <v>99851.65483116559</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>123.7373847823031</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>123.7373847823067</v>
       </c>
       <c r="G4" t="n">
         <v>16519.04039119668</v>
@@ -26444,22 +26444,22 @@
         <v>12946.16329191559</v>
       </c>
       <c r="K4" t="n">
+        <v>12946.16329191561</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12946.16329191561</v>
+      </c>
+      <c r="M4" t="n">
         <v>12946.1632919156</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12946.16329191559</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12946.16329191559</v>
       </c>
       <c r="N4" t="n">
         <v>12946.1632919156</v>
       </c>
       <c r="O4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.16329191561</v>
       </c>
       <c r="P4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.16329191561</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>256.4018338459556</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>256.4018338459632</v>
       </c>
       <c r="G5" t="n">
         <v>32636.50261996421</v>
       </c>
       <c r="H5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="I5" t="n">
         <v>46051.08120963781</v>
@@ -26496,22 +26496,22 @@
         <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-4006.531679114918</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-893.4800288174204</v>
       </c>
       <c r="G6" t="n">
-        <v>-317479.4498364763</v>
+        <v>-315247.0557407017</v>
       </c>
       <c r="H6" t="n">
-        <v>54309.41124055923</v>
+        <v>53577.6603187845</v>
       </c>
       <c r="I6" t="n">
-        <v>-73326.71495175303</v>
+        <v>-73880.59539497492</v>
       </c>
       <c r="J6" t="n">
-        <v>74705.6911041413</v>
+        <v>74151.81066091938</v>
       </c>
       <c r="K6" t="n">
-        <v>74705.69110414136</v>
+        <v>74151.81066091936</v>
       </c>
       <c r="L6" t="n">
-        <v>74705.69110414134</v>
+        <v>74151.81066091939</v>
       </c>
       <c r="M6" t="n">
-        <v>74705.69110414134</v>
+        <v>73338.77041929644</v>
       </c>
       <c r="N6" t="n">
-        <v>74705.69110414136</v>
+        <v>74151.81066091936</v>
       </c>
       <c r="O6" t="n">
-        <v>-25931.09938771506</v>
+        <v>-25699.84417024619</v>
       </c>
       <c r="P6" t="n">
-        <v>74705.6911041413</v>
+        <v>74151.81066091936</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.662332998740214</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="G3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="H3" t="n">
         <v>330.7713854632871</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3.26254892226018</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="G4" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="H4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.662332998740214</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>330.7713854632871</v>
+        <v>328.1090524645469</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>135.9305426299341</v>
+        <v>135.930542629934</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3.26254892226018</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>418.1856318563248</v>
+        <v>414.9230829340646</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>171.8962625056094</v>
+        <v>171.8962625056093</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3.26254892226018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>418.1856318563247</v>
+        <v>414.9230829340647</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3.26254892226018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>418.1856318563248</v>
+        <v>414.9230829340646</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.0107028462260913</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1096105239129576</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313854</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.9083906948817176</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.361442175632163</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.688989405823905</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.879326147397156</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.909735609237038</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.803309182076342</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.539082665869713</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.155786985397818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.6723126642497085</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.2438911083770558</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.04685170935471471</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.0008562276980873041</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.005726527582195932</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.05530620059647125</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.1971633400010442</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.5410312747722921</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.9247086227794195</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.243384859458814</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.450971484313416</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.489374382002792</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.362486586628872</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1.093515604708976</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.7309862225975018</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.3555470370770423</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>0.1063677382043849</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.02308192477209675</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.0003767452356707851</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.004800928358383991</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.04268461758635952</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.1443770091775841</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.3394256349377482</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.5577805856377036</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.7137671124819256</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.7525673425783196</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.7346729732425253</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.6785894010559484</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.5806504625449145</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.4020122828097722</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.2158671969142474</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.08366708784565553</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.02051305753127705</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.000261868819548218</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I17" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J17" t="n">
         <v>112.8595291536268</v>
@@ -32241,13 +32241,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M17" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N17" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O17" t="n">
         <v>224.0452553667434</v>
@@ -32259,13 +32259,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S17" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T17" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U17" t="n">
         <v>0.1063787370334189</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H18" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I18" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J18" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K18" t="n">
         <v>114.8868877226589</v>
@@ -32335,10 +32335,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R18" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S18" t="n">
         <v>13.21525299468887</v>
@@ -32347,7 +32347,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H19" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I19" t="n">
         <v>17.9375695592222</v>
@@ -32396,25 +32396,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K19" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L19" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M19" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N19" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O19" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P19" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R19" t="n">
         <v>26.81959463117078</v>
@@ -32426,7 +32426,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M34" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M37" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.9083906948817178</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.361442175632163</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.688989405823905</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.879326147397157</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.909735609237038</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.803309182076342</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.539082665869714</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.155786985397818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.6723126642497075</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.388529156745677</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.5410312747722921</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>3.26254892226018</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.243384859458814</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.450971484313416</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.489374382002792</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.362486586628872</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1.093515604708976</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.730986222597501</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.3555470370770415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.26254892226018</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.7557095048924638</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.7137671124819258</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>3.26254892226018</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.262548922260178</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.6785894010559481</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.5806504625449147</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.4020122828097712</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.9083906948817442</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1.155786985397853</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.672312664249727</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.353190453639797</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.5577805856377203</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.7137671124819471</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.7346729732425477</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.6785894010559677</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.5806504625449325</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.127817151082276</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J17" t="n">
-        <v>112.8595291536269</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K17" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M17" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N17" t="n">
         <v>237.2677999464443</v>
@@ -35904,10 +35904,10 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q17" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K18" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L18" t="n">
         <v>154.4795984656607</v>
@@ -35977,13 +35977,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O18" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P18" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q18" t="n">
-        <v>107.6232914195061</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R18" t="n">
         <v>162.5299238926254</v>
@@ -36044,28 +36044,28 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K19" t="n">
-        <v>200.1312371071027</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L19" t="n">
-        <v>88.67926619453436</v>
+        <v>288.0223292450721</v>
       </c>
       <c r="M19" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="N19" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O19" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P19" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q19" t="n">
         <v>219.8381709871101</v>
       </c>
       <c r="R19" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>50.85195676437968</v>
       </c>
       <c r="J20" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K20" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M20" t="n">
         <v>233.4896926139916</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>24.49580543289438</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J21" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K21" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L21" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M21" t="n">
         <v>180.2704050774914</v>
@@ -36214,16 +36214,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O21" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P21" t="n">
-        <v>297.3476526641014</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q21" t="n">
         <v>90.818588703052</v>
       </c>
       <c r="R21" t="n">
-        <v>44.17358238319139</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K22" t="n">
-        <v>278.3943580156866</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L22" t="n">
-        <v>88.67926619453442</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="M22" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268063</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O22" t="n">
-        <v>418.1856318563248</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P22" t="n">
-        <v>418.1856318563248</v>
+        <v>354.1174011539906</v>
       </c>
       <c r="Q22" t="n">
         <v>219.8381709871101</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -36363,7 +36363,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36372,7 +36372,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
         <v>269.7982739184533</v>
@@ -36436,7 +36436,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -36521,7 +36521,7 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>266.5900650540088</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
         <v>590.0818943619341</v>
@@ -36530,7 +36530,7 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
-        <v>118.9554357048098</v>
+        <v>260.4234789221541</v>
       </c>
       <c r="P25" t="n">
         <v>452.8039900485103</v>
@@ -36591,13 +36591,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
         <v>296.0766412766674</v>
@@ -36609,7 +36609,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
         <v>269.7982739184533</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36682,7 +36682,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811313</v>
@@ -36755,25 +36755,25 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116988</v>
+        <v>128.5954242524313</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>171.0631211972095</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36828,25 +36828,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
@@ -36855,7 +36855,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916864</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233622</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
         <v>375.3116718572664</v>
@@ -36998,10 +36998,10 @@
         <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N31" t="n">
-        <v>198.8376634256983</v>
+        <v>198.8376634256977</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048098</v>
@@ -37013,7 +37013,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,19 +37065,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37086,13 +37086,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.8417569156242</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R33" t="n">
         <v>62.32672164233622</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512691</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>227.2024143463632</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37323,13 +37323,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916864</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R36" t="n">
         <v>62.32672164233622</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>167.0540751263758</v>
       </c>
       <c r="L37" t="n">
-        <v>281.852445040951</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N37" t="n">
         <v>575.5128433954892</v>
@@ -37484,10 +37484,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,22 +37539,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.076641276667</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -37566,7 +37566,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916864</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R39" t="n">
         <v>62.32672164233622</v>
@@ -37703,28 +37703,28 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954892</v>
+        <v>304.5047560030943</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>139.7481869072826</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,10 +37794,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233713</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,28 +37940,28 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K43" t="n">
-        <v>167.0540751263756</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619341</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,19 +38013,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38034,7 +38034,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916864</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447059</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>260.4234789221537</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.10166275847587</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
